--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H2">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I2">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J2">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.3193418523062223</v>
+        <v>0.52022571095</v>
       </c>
       <c r="R2">
-        <v>2.874076670756</v>
+        <v>4.68203139855</v>
       </c>
       <c r="S2">
-        <v>8.084557094795497E-06</v>
+        <v>1.834930539404194E-05</v>
       </c>
       <c r="T2">
-        <v>8.16652061508934E-06</v>
+        <v>1.851202804741096E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H3">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I3">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J3">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>58.48856524654801</v>
+        <v>90.48209240824109</v>
       </c>
       <c r="R3">
-        <v>526.397087218932</v>
+        <v>814.3388316741699</v>
       </c>
       <c r="S3">
-        <v>0.001480714606349065</v>
+        <v>0.003191467686706305</v>
       </c>
       <c r="T3">
-        <v>0.001495726508703618</v>
+        <v>0.003219769798365038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H4">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I4">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J4">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>2.675894762209333</v>
+        <v>1.616162639368333</v>
       </c>
       <c r="R4">
-        <v>16.055368573256</v>
+        <v>9.696975836209999</v>
       </c>
       <c r="S4">
-        <v>6.774377936532079E-05</v>
+        <v>5.700499074152961E-05</v>
       </c>
       <c r="T4">
-        <v>4.562038993965448E-05</v>
+        <v>3.834034276459132E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8675826666666667</v>
+        <v>1.026663333333333</v>
       </c>
       <c r="H5">
-        <v>2.602748</v>
+        <v>3.07999</v>
       </c>
       <c r="I5">
-        <v>0.002935658305514945</v>
+        <v>0.005876773047146149</v>
       </c>
       <c r="J5">
-        <v>0.002942610642527823</v>
+        <v>0.005909718423624847</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>54.47537191047157</v>
+        <v>73.99537033228887</v>
       </c>
       <c r="R5">
-        <v>490.278347194244</v>
+        <v>665.9583329906</v>
       </c>
       <c r="S5">
-        <v>0.001379115362705764</v>
+        <v>0.002609951064304272</v>
       </c>
       <c r="T5">
-        <v>0.001393097223269462</v>
+        <v>0.002633096254447808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>1.231619</v>
       </c>
       <c r="I6">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J6">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>0.1511123984325556</v>
+        <v>0.208026607195</v>
       </c>
       <c r="R6">
-        <v>1.360011585893</v>
+        <v>1.872239464755</v>
       </c>
       <c r="S6">
-        <v>3.825608212756263E-06</v>
+        <v>7.337476147683772E-06</v>
       </c>
       <c r="T6">
-        <v>3.864393307932892E-06</v>
+        <v>7.402545291291284E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J7">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>27.67675865676901</v>
+        <v>36.18176168420855</v>
       </c>
       <c r="R7">
-        <v>249.090827910921</v>
+        <v>325.635855157877</v>
       </c>
       <c r="S7">
-        <v>0.0007006733816554769</v>
+        <v>0.001276196429479814</v>
       </c>
       <c r="T7">
-        <v>0.0007077770060424757</v>
+        <v>0.00128751380988008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J8">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>1.266232009836334</v>
+        <v>0.6462672326001667</v>
       </c>
       <c r="R8">
-        <v>7.597392059018001</v>
+        <v>3.877603395601</v>
       </c>
       <c r="S8">
-        <v>3.205632116445274E-05</v>
+        <v>2.279501871502569E-05</v>
       </c>
       <c r="T8">
-        <v>2.158754479384378E-05</v>
+        <v>1.533144413305991E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.001389151983434436</v>
+        <v>0.002349989884237642</v>
       </c>
       <c r="J9">
-        <v>0.001392441825693258</v>
+        <v>0.002363164002216374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>25.7777176572619</v>
+        <v>29.58909087798444</v>
       </c>
       <c r="R9">
-        <v>231.9994589153571</v>
+        <v>266.30181790186</v>
       </c>
       <c r="S9">
-        <v>0.0006525966724017502</v>
+        <v>0.001043660959895118</v>
       </c>
       <c r="T9">
-        <v>0.0006592128815490057</v>
+        <v>0.001052916202911943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H10">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I10">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J10">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>26.55120440890444</v>
+        <v>51.401064034375</v>
       </c>
       <c r="R10">
-        <v>238.96083968014</v>
+        <v>462.609576309375</v>
       </c>
       <c r="S10">
-        <v>0.0006721785022200533</v>
+        <v>0.001813008856911539</v>
       </c>
       <c r="T10">
-        <v>0.0006789932374815885</v>
+        <v>0.001829086719557717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H11">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I11">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J11">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>4862.94496079862</v>
+        <v>8940.111432299513</v>
       </c>
       <c r="R11">
-        <v>43766.50464718758</v>
+        <v>80461.00289069561</v>
       </c>
       <c r="S11">
-        <v>0.1231118185746756</v>
+        <v>0.3153339626918135</v>
       </c>
       <c r="T11">
-        <v>0.1243599609183859</v>
+        <v>0.3181303616837471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H12">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I12">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J12">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>222.4832989946067</v>
+        <v>159.6854549238542</v>
       </c>
       <c r="R12">
-        <v>1334.89979396764</v>
+        <v>958.1127295431248</v>
       </c>
       <c r="S12">
-        <v>0.005632456004030352</v>
+        <v>0.005632395934513774</v>
       </c>
       <c r="T12">
-        <v>0.003793039621189962</v>
+        <v>0.003788229555097972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>72.13387333333333</v>
+        <v>101.4397916666667</v>
       </c>
       <c r="H13">
-        <v>216.40162</v>
+        <v>304.319375</v>
       </c>
       <c r="I13">
-        <v>0.2440809533154531</v>
+        <v>0.5806563984702423</v>
       </c>
       <c r="J13">
-        <v>0.2446589950591689</v>
+        <v>0.5839115766945667</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>4529.273956421651</v>
+        <v>7311.13570252361</v>
       </c>
       <c r="R13">
-        <v>40763.46560779486</v>
+        <v>65800.22132271249</v>
       </c>
       <c r="S13">
-        <v>0.1146645002345271</v>
+        <v>0.2578770309870035</v>
       </c>
       <c r="T13">
-        <v>0.1158270012821115</v>
+        <v>0.260163898736164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H14">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I14">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J14">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>0.7710270327448334</v>
+        <v>1.4804775762975</v>
       </c>
       <c r="R14">
-        <v>4.626162196469</v>
+        <v>8.882865457785</v>
       </c>
       <c r="S14">
-        <v>1.951955881397919E-05</v>
+        <v>5.221913220495327E-05</v>
       </c>
       <c r="T14">
-        <v>1.314496907150131E-05</v>
+        <v>3.512147623504193E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H15">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I15">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J15">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>141.2162689790655</v>
+        <v>257.4972863649065</v>
       </c>
       <c r="R15">
-        <v>847.2976138743931</v>
+        <v>1544.983718189439</v>
       </c>
       <c r="S15">
-        <v>0.003575074738968089</v>
+        <v>0.009082396825444216</v>
       </c>
       <c r="T15">
-        <v>0.002407546570078499</v>
+        <v>0.006108626681310525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H16">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I16">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J16">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>6.4607478898985</v>
+        <v>4.59933543627675</v>
       </c>
       <c r="R16">
-        <v>25.842991559594</v>
+        <v>18.397341745107</v>
       </c>
       <c r="S16">
-        <v>0.0001635622916750591</v>
+        <v>0.0001622269118067341</v>
       </c>
       <c r="T16">
-        <v>7.343134770009115E-05</v>
+        <v>7.274024400791046E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.0947135</v>
+        <v>2.9217165</v>
       </c>
       <c r="H17">
-        <v>4.189427</v>
+        <v>5.843433</v>
       </c>
       <c r="I17">
-        <v>0.007087927548824488</v>
+        <v>0.01672433817506114</v>
       </c>
       <c r="J17">
-        <v>0.004736475631253357</v>
+        <v>0.01121206356427047</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>131.5267136407969</v>
+        <v>210.57876268117</v>
       </c>
       <c r="R17">
-        <v>789.160281844781</v>
+        <v>1263.47257608702</v>
       </c>
       <c r="S17">
-        <v>0.003329770959367361</v>
+        <v>0.007427495305605233</v>
       </c>
       <c r="T17">
-        <v>0.002242352744403266</v>
+        <v>0.004995575162716995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H18">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I18">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J18">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>80.98763513252021</v>
+        <v>34.91254763117</v>
       </c>
       <c r="R18">
-        <v>728.888716192682</v>
+        <v>314.21292868053</v>
       </c>
       <c r="S18">
-        <v>0.002050308017796162</v>
+        <v>0.001231428945329358</v>
       </c>
       <c r="T18">
-        <v>0.00207109461882511</v>
+        <v>0.001242349325208395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H19">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I19">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J19">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>14833.1656104687</v>
+        <v>6072.288036671562</v>
       </c>
       <c r="R19">
-        <v>133498.4904942183</v>
+        <v>54650.59233004406</v>
       </c>
       <c r="S19">
-        <v>0.375521007999285</v>
+        <v>0.2141806244485729</v>
       </c>
       <c r="T19">
-        <v>0.3793281459041837</v>
+        <v>0.2160799900519065</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H20">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I20">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J20">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>678.6282070131552</v>
+        <v>108.4612965853343</v>
       </c>
       <c r="R20">
-        <v>4071.769242078932</v>
+        <v>650.767779512006</v>
       </c>
       <c r="S20">
-        <v>0.01718036156587312</v>
+        <v>0.003825626862701023</v>
       </c>
       <c r="T20">
-        <v>0.01156969394507406</v>
+        <v>0.002573035155297871</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>220.0258686666666</v>
+        <v>68.89977133333333</v>
       </c>
       <c r="H21">
-        <v>660.0776059999999</v>
+        <v>206.699314</v>
       </c>
       <c r="I21">
-        <v>0.7445063088467732</v>
+        <v>0.3943925004233126</v>
       </c>
       <c r="J21">
-        <v>0.7462694768413567</v>
+        <v>0.3966034773153216</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>13815.38784262776</v>
+        <v>4965.857774492795</v>
       </c>
       <c r="R21">
-        <v>124338.4905836498</v>
+        <v>44692.71997043516</v>
       </c>
       <c r="S21">
-        <v>0.349754631263819</v>
+        <v>0.1751548201667093</v>
       </c>
       <c r="T21">
-        <v>0.3533005423732739</v>
+        <v>0.1767081027829088</v>
       </c>
     </row>
   </sheetData>
